--- a/sens_analysis_v2/sensitivity_analysis_report.xlsx
+++ b/sens_analysis_v2/sensitivity_analysis_report.xlsx
@@ -463,58 +463,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A_contact_Mount_Bf</t>
+          <t>T_E</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.8299383864946e+54</v>
+        <v>51.23411991496559</v>
       </c>
       <c r="C2" t="n">
-        <v>2.689245004121131e+21</v>
+        <v>22.36825650904495</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.077636851111855e+21</v>
+        <v>455.928330032111</v>
       </c>
       <c r="E2" t="n">
-        <v>4.395959421098444e+73</v>
+        <v>411.5021924376668</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A_ESC_conv</t>
+          <t>Q_B_total</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.377637523399462e+54</v>
+        <v>15.15774230878738</v>
       </c>
       <c r="C3" t="n">
-        <v>2.254368973521035e+73</v>
+        <v>6.454418273964961</v>
       </c>
       <c r="D3" t="n">
-        <v>2.254368973521035e+73</v>
+        <v>440.014491797031</v>
       </c>
       <c r="E3" t="n">
-        <v>1.143793968051571e+72</v>
+        <v>426.8709080573479</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L_path_ESC_Mount</t>
+          <t>Q_ESC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.33433750246028e+54</v>
+        <v>6.609894172818337</v>
       </c>
       <c r="C4" t="n">
-        <v>5.220855505841314e+21</v>
+        <v>2.851489181711599</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.546026349391673e+21</v>
+        <v>436.4115627047776</v>
       </c>
       <c r="E4" t="n">
-        <v>2.07272834732313e+73</v>
+        <v>430.679990297684</v>
       </c>
     </row>
     <row r="5">
@@ -524,187 +524,187 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.496225171955705e+53</v>
+        <v>-2.444757626047425</v>
       </c>
       <c r="C5" t="n">
-        <v>3.877577198927722e+72</v>
+        <v>-1.011493911162688</v>
       </c>
       <c r="D5" t="n">
-        <v>3.877577198927722e+72</v>
+        <v>432.5485796119033</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.475778488511883e+18</v>
+        <v>434.6684782040937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>k_cfrp</t>
+          <t>A_mount_conv</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.887125756792464e+51</v>
+        <v>-0.6354625909588437</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.225167478607443e+71</v>
+        <v>-0.2698054955304201</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.225167478607443e+71</v>
+        <v>433.2902680275356</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.944901194811151e+19</v>
+        <v>433.8412904428502</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A_contact_ESC_Mount</t>
+          <t>A_ESC_conv</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.710479028695616e+51</v>
+        <v>-0.4874970945579285</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.775213258133355e+21</v>
+        <v>-0.2063879343140229</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.154209511336634e+22</v>
+        <v>433.353685588752</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.870523190532895e+70</v>
+        <v>433.7764041410696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T_E</t>
+          <t>k_eff</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5983.701504642075</v>
+        <v>-0.2902692071501758</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.518252343183672e+22</v>
+        <v>-0.1235265003849122</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.29494052870697e+22</v>
+        <v>433.4365470226811</v>
       </c>
       <c r="E8" t="n">
-        <v>1314.863864052585</v>
+        <v>433.6882453002681</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>k_eff</t>
+          <t>L_path_Mount_Bf</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-777.7639396550172</v>
+        <v>-0.2284927808391254</v>
       </c>
       <c r="C9" t="n">
-        <v>7.243081404359387e+21</v>
+        <v>-0.09580925350161351</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.238004508735986e+20</v>
+        <v>433.4642642695644</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.260540171199575e+22</v>
+        <v>433.6623949632846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q_B_total</t>
+          <t>A_contact_Mount_Bf</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-331.7760681219725</v>
+        <v>0.2284596646615297</v>
       </c>
       <c r="C10" t="n">
-        <v>6.151071712180366e+21</v>
+        <v>0.09258158292135477</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.615810143052621e+21</v>
+        <v>433.6526551059874</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.769541190046803e+21</v>
+        <v>433.454553127972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q_ESC</t>
+          <t>k_mount</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-76.50822592973402</v>
+        <v>0.15388224955587</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.00777474454783e+21</v>
+        <v>0.07519287120317131</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.077465659978082e+22</v>
+        <v>433.6352663942692</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.196311730328025e+22</v>
+        <v>433.5018319954065</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L_path_Mount_Bf</t>
+          <t>L_path_ESC_Mount</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-73.3606692715791</v>
+        <v>0.06213539434581419</v>
       </c>
       <c r="C12" t="n">
-        <v>7.766881809426241e+21</v>
+        <v>0.01637137936927502</v>
       </c>
       <c r="D12" t="n">
-        <v>-45806746263615.16</v>
+        <v>433.5764449024353</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.139567347913098e+21</v>
+        <v>433.5225660501534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>k_mount</t>
+          <t>A_contact_ESC_Mount</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-38.0240550460874</v>
+        <v>-0.06109514195193144</v>
       </c>
       <c r="C13" t="n">
-        <v>7.725126354773844e+21</v>
+        <v>-0.03404511519147491</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.175550045914207e+19</v>
+        <v>433.5260284078745</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.32412186858815e+20</v>
+        <v>433.5790052363477</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A_mount_conv</t>
+          <t>k_cfrp</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.92169034833611</v>
+        <v>-0.02199645118685588</v>
       </c>
       <c r="C14" t="n">
-        <v>7.395287969806999e+21</v>
+        <v>-0.008583082495022154</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.715938854259875e+20</v>
+        <v>433.551490440571</v>
       </c>
       <c r="E14" t="n">
-        <v>1637.681829472272</v>
+        <v>433.5705640065586</v>
       </c>
     </row>
   </sheetData>
